--- a/data/trans_orig/P33_1_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2007</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3001,7 +3001,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -3980,7 +3980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2012</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6435,7 +6435,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2016</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9869,7 +9869,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -10848,7 +10848,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2023</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13303,7 +13303,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
